--- a/formats/excel/Formats RAFAEL LAMDA 16.xlsx
+++ b/formats/excel/Formats RAFAEL LAMDA 16.xlsx
@@ -813,31 +813,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,8 +826,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,23 +842,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,6 +858,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -912,14 +904,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,23 +941,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,13 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,19 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,55 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,49 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,13 +1084,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1188,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1199,6 +1223,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,8 +1265,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,183 +1285,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1843,8 +1843,8 @@
   <sheetPr/>
   <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:H35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
